--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value326.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value326.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8313646496829223</v>
+        <v>0.9381529688835144</v>
       </c>
       <c r="B1">
-        <v>1.606776311607779</v>
+        <v>1.419307589530945</v>
       </c>
       <c r="C1">
-        <v>5.160300274317013</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.05641439543789</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.029994171134765</v>
+        <v>1.300943970680237</v>
       </c>
     </row>
   </sheetData>
